--- a/Excel/镇魂街/bubble.怪物气泡.xlsx
+++ b/Excel/镇魂街/bubble.怪物气泡.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A27A7-694D-49E5-9D39-3A7D565F046F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971FA30-C269-4F09-9F89-68F332B2BA5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="气泡内容" sheetId="26" r:id="rId2"/>
-    <sheet name="目标选择特殊条件" sheetId="27" r:id="rId3"/>
-    <sheet name="触发条件" sheetId="28" r:id="rId4"/>
+    <sheet name="触发条件" sheetId="28" r:id="rId3"/>
+    <sheet name="目标选择特殊条件" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">目标选择特殊条件!$C$1:$C$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">目标选择特殊条件!$C$1:$C$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>sheet名</t>
   </si>
@@ -257,30 +257,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>我是每回合百分百要说的话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是第二回合要说的话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是半血以下要说的话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是水晶快攒够时说的话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是自己身上有护盾时说的话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是对面身上有debuff时说的话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1-自己；2-友方（不包含自己）；3-我方（包含自己）；4-敌方；5-场上所有</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -306,6 +282,42 @@
   </si>
   <si>
     <t>Target2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小子你刚砍我了？用点力啊，还没我回血快</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合掉血疼不疼？不考虑自己驱散一下？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对面那小子防御变低了，快打他！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你能打破我的护盾吗？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>想在我面前打死人，你还稍微嫩了点！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬死一个人我还能再行动一次呦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来打我啊！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一动不动是王八，你不动试试看？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>落后就要挨打，总在最后就动不了了呦！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +629,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -638,9 +650,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1144,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B14F42B-B1EF-448D-BF6C-962FA57707A1}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1168,7 @@
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -1167,16 +1176,16 @@
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -1225,10 +1234,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -1254,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1262,14 +1271,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1277,22 +1286,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G5" s="6">
-        <v>2</v>
+        <v>4017</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1300,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
@@ -1308,14 +1317,14 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G6" s="6">
-        <v>0.5</v>
+        <v>4033</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1326,17 +1335,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>104</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4005</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1347,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1355,11 +1366,11 @@
         <v>105</v>
       </c>
       <c r="G8" s="6">
-        <v>4005</v>
+        <v>4047</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1367,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -1375,18 +1386,84 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>105</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4041</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1395,6 +1472,357 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACECFC0-7CC4-4992-B97C-E48774ECE7A1}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="50.875" customWidth="1"/>
+    <col min="4" max="4" width="106" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C336EA-C7E4-42D6-B3CE-B9219955EAFC}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1404,65 +1832,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>65</v>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1496,355 +1924,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACECFC0-7CC4-4992-B97C-E48774ECE7A1}">
-  <dimension ref="A1:D42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
-    <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="4" width="106" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>100</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>101</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>102</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>103</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>104</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>105</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>107</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/镇魂街/bubble.怪物气泡.xlsx
+++ b/Excel/镇魂街/bubble.怪物气泡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971FA30-C269-4F09-9F89-68F332B2BA5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8EE4D-71F1-481D-8FA1-D9F8F87E10CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>sheet名</t>
   </si>
@@ -318,6 +318,18 @@
   </si>
   <si>
     <t>落后就要挨打，总在最后就动不了了呦！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟们，不要怂，这货没仔细看教学，召唤不出来守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾准备就绪，注意保护好我！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快死的人就没有被我庇护的资格！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1153,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B14F42B-B1EF-448D-BF6C-962FA57707A1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1180,7 @@
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -1463,6 +1475,75 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>100</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/bubble.怪物气泡.xlsx
+++ b/Excel/镇魂街/bubble.怪物气泡.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA8EE4D-71F1-481D-8FA1-D9F8F87E10CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB4CEC5-A3D2-43FD-8B56-1B03E5441EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>sheet名</t>
   </si>
@@ -330,6 +330,30 @@
   </si>
   <si>
     <t>快死的人就没有被我庇护的资格！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打你可疼，你得先打死我</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边小弟给我画条龙，右边小弟给我画个彩虹！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟们我顶不住了，你们加油上！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有我在，你们别想动我兄弟！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟们不要怕，我奶可大，弄死他们！</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兄弟们我不行了，我死以后替我报仇！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1165,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B14F42B-B1EF-448D-BF6C-962FA57707A1}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1544,6 +1568,144 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>103</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>102</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>103</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>102</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
